--- a/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
+++ b/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="90">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t xml:space="preserve">Battery SOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Temp</t>
   </si>
 </sst>
 </file>
@@ -1881,6 +1893,57 @@
         <v>83</v>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
+++ b/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="91">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t xml:space="preserve">Max Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
   </si>
 </sst>
 </file>
@@ -1944,6 +1947,23 @@
         <v>89</v>
       </c>
     </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
+++ b/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="92">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
   </si>
 </sst>
 </file>
@@ -1964,6 +1967,23 @@
         <v>67</v>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
+++ b/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="105">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -291,6 +291,45 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consolab.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,a-z,A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20-0x7f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminalEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z</t>
   </si>
 </sst>
 </file>
@@ -1583,10 +1622,33 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
       <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7"/>
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1604,6 +1666,33 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
       <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1984,6 +2073,74 @@
         <v>67</v>
       </c>
     </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
+++ b/Dashboard_Modules/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="106">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">a-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
   </si>
 </sst>
 </file>
@@ -2092,27 +2095,27 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -2121,26 +2124,10 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>101</v>
-      </c>
-    </row>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
